--- a/2022 Data/Attendees/2019 Lisbon.xlsx
+++ b/2022 Data/Attendees/2019 Lisbon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/uaces/2022 Data/Attendees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED1959B-7DED-DA4A-A749-598EF1686A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B7EE8A-1EF1-C043-A6CC-4398102137A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{BA1D8011-E0C8-4D9E-A1FB-85277CB52272}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BA1D8011-E0C8-4D9E-A1FB-85277CB52272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="631">
   <si>
     <t>organisation</t>
   </si>
@@ -1271,10 +1271,664 @@
     <t>Early-Career Non-Member</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
     <t>number of attendants</t>
+  </si>
+  <si>
+    <t>Abyei</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aksai Chin</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Azores Islands</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guantanamo</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hala'ib Triangle</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ilemi Triangle</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jammu-Kashmir</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuril Islands</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Ma'tan al-Sarra</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Madeira Islands</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Midway Is.</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Pitcairn Island</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Georgia &amp; the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>U.K. of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +2292,7 @@
   <dimension ref="A1:G491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,10 +2319,10 @@
         <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1685,10 +2339,7 @@
         <v>405</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1705,10 +2356,7 @@
         <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1725,10 +2373,7 @@
         <v>408</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1745,10 +2390,7 @@
         <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1765,10 +2407,7 @@
         <v>406</v>
       </c>
       <c r="F6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1785,10 +2424,7 @@
         <v>406</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,10 +2441,7 @@
         <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>401</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1825,10 +2458,7 @@
         <v>408</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1845,10 +2475,7 @@
         <v>407</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1865,10 +2492,7 @@
         <v>406</v>
       </c>
       <c r="F11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1885,10 +2509,7 @@
         <v>410</v>
       </c>
       <c r="F12" t="s">
-        <v>372</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1905,10 +2526,7 @@
         <v>405</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1925,10 +2543,10 @@
         <v>408</v>
       </c>
       <c r="F14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1945,10 +2563,7 @@
         <v>405</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1965,10 +2580,10 @@
         <v>409</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,10 +2600,10 @@
         <v>405</v>
       </c>
       <c r="F17" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2005,10 +2620,7 @@
         <v>405</v>
       </c>
       <c r="F18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G18">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2025,10 +2637,7 @@
         <v>405</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2045,10 +2654,7 @@
         <v>408</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
-      </c>
-      <c r="G20">
-        <v>13</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2065,10 +2671,7 @@
         <v>407</v>
       </c>
       <c r="F21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2085,10 +2688,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2105,10 +2705,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>391</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2125,10 +2722,7 @@
         <v>405</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2145,10 +2739,7 @@
         <v>405</v>
       </c>
       <c r="F25" t="s">
-        <v>392</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2165,10 +2756,10 @@
         <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2185,10 +2776,7 @@
         <v>410</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
-      </c>
-      <c r="G27">
-        <v>22</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2205,10 +2793,7 @@
         <v>405</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2225,10 +2810,7 @@
         <v>405</v>
       </c>
       <c r="F29" t="s">
-        <v>389</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2245,10 +2827,7 @@
         <v>408</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2265,10 +2844,7 @@
         <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>366</v>
-      </c>
-      <c r="G31">
-        <v>22</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2285,10 +2861,10 @@
         <v>405</v>
       </c>
       <c r="F32" t="s">
-        <v>362</v>
+        <v>437</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2305,10 +2881,7 @@
         <v>408</v>
       </c>
       <c r="F33" t="s">
-        <v>377</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2325,10 +2898,7 @@
         <v>410</v>
       </c>
       <c r="F34" t="s">
-        <v>382</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2345,10 +2915,10 @@
         <v>407</v>
       </c>
       <c r="F35" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2365,10 +2935,7 @@
         <v>405</v>
       </c>
       <c r="F36" t="s">
-        <v>387</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2385,10 +2952,7 @@
         <v>405</v>
       </c>
       <c r="F37" t="s">
-        <v>394</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2405,10 +2969,7 @@
         <v>407</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
-      </c>
-      <c r="G38">
-        <v>17</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2425,10 +2986,10 @@
         <v>405</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,10 +3006,7 @@
         <v>408</v>
       </c>
       <c r="F40" t="s">
-        <v>374</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2465,10 +3023,7 @@
         <v>409</v>
       </c>
       <c r="F41" t="s">
-        <v>400</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,10 +3040,7 @@
         <v>406</v>
       </c>
       <c r="F42" t="s">
-        <v>373</v>
-      </c>
-      <c r="G42">
-        <v>9</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2505,10 +3057,7 @@
         <v>405</v>
       </c>
       <c r="F43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G43">
-        <v>164</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2525,10 +3074,10 @@
         <v>407</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2544,6 +3093,9 @@
       <c r="D45" t="s">
         <v>406</v>
       </c>
+      <c r="F45" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2558,6 +3110,9 @@
       <c r="D46" t="s">
         <v>408</v>
       </c>
+      <c r="F46" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2572,6 +3127,9 @@
       <c r="D47" t="s">
         <v>404</v>
       </c>
+      <c r="F47" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2586,8 +3144,11 @@
       <c r="D48" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>314</v>
       </c>
@@ -2600,8 +3161,11 @@
       <c r="D49" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2614,8 +3178,11 @@
       <c r="D50" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2628,8 +3195,11 @@
       <c r="D51" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -2642,8 +3212,11 @@
       <c r="D52" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>295</v>
       </c>
@@ -2656,8 +3229,11 @@
       <c r="D53" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2670,8 +3246,11 @@
       <c r="D54" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -2684,8 +3263,11 @@
       <c r="D55" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -2698,8 +3280,11 @@
       <c r="D56" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>279</v>
       </c>
@@ -2712,8 +3297,11 @@
       <c r="D57" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -2726,8 +3314,11 @@
       <c r="D58" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2740,8 +3331,14 @@
       <c r="D59" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -2754,8 +3351,11 @@
       <c r="D60" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -2768,8 +3368,14 @@
       <c r="D61" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -2782,8 +3388,14 @@
       <c r="D62" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2796,8 +3408,11 @@
       <c r="D63" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -2810,8 +3425,11 @@
       <c r="D64" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2824,8 +3442,14 @@
       <c r="D65" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3462,11 @@
       <c r="D66" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -2852,8 +3479,11 @@
       <c r="D67" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2866,8 +3496,11 @@
       <c r="D68" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -2880,8 +3513,11 @@
       <c r="D69" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -2894,8 +3530,11 @@
       <c r="D70" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>241</v>
       </c>
@@ -2908,8 +3547,11 @@
       <c r="D71" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -2922,8 +3564,11 @@
       <c r="D72" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -2936,8 +3581,11 @@
       <c r="D73" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2950,8 +3598,14 @@
       <c r="D74" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>396</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -2964,8 +3618,11 @@
       <c r="D75" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>304</v>
       </c>
@@ -2978,8 +3635,11 @@
       <c r="D76" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -2992,8 +3652,11 @@
       <c r="D77" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>265</v>
       </c>
@@ -3006,8 +3669,11 @@
       <c r="D78" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>244</v>
       </c>
@@ -3020,8 +3686,14 @@
       <c r="D79" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>367</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -3034,8 +3706,14 @@
       <c r="D80" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3048,8 +3726,11 @@
       <c r="D81" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3062,8 +3743,11 @@
       <c r="D82" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -3076,8 +3760,11 @@
       <c r="D83" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3090,8 +3777,11 @@
       <c r="D84" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -3104,8 +3794,11 @@
       <c r="D85" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -3118,8 +3811,11 @@
       <c r="D86" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>271</v>
       </c>
@@ -3132,8 +3828,14 @@
       <c r="D87" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3146,8 +3848,14 @@
       <c r="D88" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>361</v>
+      </c>
+      <c r="G88">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -3160,8 +3868,11 @@
       <c r="D89" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -3174,8 +3885,11 @@
       <c r="D90" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -3188,8 +3902,11 @@
       <c r="D91" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>238</v>
       </c>
@@ -3202,8 +3919,14 @@
       <c r="D92" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>378</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -3216,8 +3939,11 @@
       <c r="D93" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -3230,8 +3956,11 @@
       <c r="D94" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>298</v>
       </c>
@@ -3244,8 +3973,11 @@
       <c r="D95" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>292</v>
       </c>
@@ -3258,8 +3990,11 @@
       <c r="D96" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +4007,11 @@
       <c r="D97" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3286,8 +4024,11 @@
       <c r="D98" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -3300,8 +4041,11 @@
       <c r="D99" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>65</v>
       </c>
@@ -3314,8 +4058,11 @@
       <c r="D100" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -3328,8 +4075,11 @@
       <c r="D101" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -3342,8 +4092,11 @@
       <c r="D102" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -3356,8 +4109,11 @@
       <c r="D103" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -3370,8 +4126,11 @@
       <c r="D104" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -3384,8 +4143,11 @@
       <c r="D105" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -3398,8 +4160,11 @@
       <c r="D106" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>135</v>
       </c>
@@ -3412,8 +4177,11 @@
       <c r="D107" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>139</v>
       </c>
@@ -3426,8 +4194,11 @@
       <c r="D108" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>65</v>
       </c>
@@ -3440,8 +4211,14 @@
       <c r="D109" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>370</v>
+      </c>
+      <c r="G109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -3454,8 +4231,11 @@
       <c r="D110" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -3468,8 +4248,11 @@
       <c r="D111" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -3482,8 +4265,11 @@
       <c r="D112" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -3496,8 +4282,11 @@
       <c r="D113" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -3510,8 +4299,11 @@
       <c r="D114" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -3524,8 +4316,11 @@
       <c r="D115" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>222</v>
       </c>
@@ -3538,8 +4333,14 @@
       <c r="D116" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>365</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>224</v>
       </c>
@@ -3552,8 +4353,11 @@
       <c r="D117" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -3566,8 +4370,11 @@
       <c r="D118" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -3580,8 +4387,14 @@
       <c r="D119" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>364</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>240</v>
       </c>
@@ -3594,8 +4407,11 @@
       <c r="D120" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -3608,8 +4424,11 @@
       <c r="D121" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3622,8 +4441,11 @@
       <c r="D122" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3636,8 +4458,11 @@
       <c r="D123" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -3650,8 +4475,11 @@
       <c r="D124" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -3664,8 +4492,11 @@
       <c r="D125" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>267</v>
       </c>
@@ -3678,8 +4509,11 @@
       <c r="D126" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -3692,8 +4526,11 @@
       <c r="D127" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -3706,8 +4543,11 @@
       <c r="D128" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +4560,11 @@
       <c r="D129" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3734,8 +4577,11 @@
       <c r="D130" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3748,8 +4594,11 @@
       <c r="D131" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>56</v>
       </c>
@@ -3762,8 +4611,11 @@
       <c r="D132" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>61</v>
       </c>
@@ -3776,8 +4628,14 @@
       <c r="D133" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>391</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>75</v>
       </c>
@@ -3790,8 +4648,11 @@
       <c r="D134" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>56</v>
       </c>
@@ -3804,8 +4665,11 @@
       <c r="D135" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -3818,8 +4682,11 @@
       <c r="D136" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>198</v>
       </c>
@@ -3832,8 +4699,11 @@
       <c r="D137" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -3846,8 +4716,11 @@
       <c r="D138" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -3860,8 +4733,14 @@
       <c r="D139" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>376</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>56</v>
       </c>
@@ -3874,8 +4753,14 @@
       <c r="D140" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>392</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -3888,8 +4773,11 @@
       <c r="D141" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -3902,8 +4790,11 @@
       <c r="D142" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -3916,8 +4807,11 @@
       <c r="D143" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -3930,8 +4824,11 @@
       <c r="D144" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -3944,8 +4841,11 @@
       <c r="D145" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>124</v>
       </c>
@@ -3958,8 +4858,14 @@
       <c r="D146" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>398</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>136</v>
       </c>
@@ -3972,8 +4878,11 @@
       <c r="D147" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>140</v>
       </c>
@@ -3986,8 +4895,11 @@
       <c r="D148" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>136</v>
       </c>
@@ -4000,8 +4912,11 @@
       <c r="D149" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>160</v>
       </c>
@@ -4014,8 +4929,11 @@
       <c r="D150" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>191</v>
       </c>
@@ -4028,8 +4946,11 @@
       <c r="D151" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -4042,8 +4963,11 @@
       <c r="D152" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4056,8 +4980,11 @@
       <c r="D153" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -4070,8 +4997,11 @@
       <c r="D154" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>43</v>
       </c>
@@ -4084,8 +5014,11 @@
       <c r="D155" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>72</v>
       </c>
@@ -4098,8 +5031,11 @@
       <c r="D156" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -4112,8 +5048,11 @@
       <c r="D157" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +5065,11 @@
       <c r="D158" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>211</v>
       </c>
@@ -4140,8 +5082,11 @@
       <c r="D159" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>215</v>
       </c>
@@ -4154,8 +5099,11 @@
       <c r="D160" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>227</v>
       </c>
@@ -4168,8 +5116,11 @@
       <c r="D161" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -4182,8 +5133,11 @@
       <c r="D162" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -4196,8 +5150,11 @@
       <c r="D163" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -4210,8 +5167,11 @@
       <c r="D164" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>157</v>
       </c>
@@ -4224,8 +5184,11 @@
       <c r="D165" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>54</v>
       </c>
@@ -4238,8 +5201,11 @@
       <c r="D166" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>205</v>
       </c>
@@ -4252,8 +5218,11 @@
       <c r="D167" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -4266,8 +5235,11 @@
       <c r="D168" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -4280,8 +5252,14 @@
       <c r="D169" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>381</v>
+      </c>
+      <c r="G169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>123</v>
       </c>
@@ -4294,8 +5272,11 @@
       <c r="D170" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>69</v>
       </c>
@@ -4308,8 +5289,11 @@
       <c r="D171" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>85</v>
       </c>
@@ -4322,8 +5306,14 @@
       <c r="D172" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>386</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -4336,8 +5326,11 @@
       <c r="D173" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>99</v>
       </c>
@@ -4350,8 +5343,11 @@
       <c r="D174" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -4364,8 +5360,11 @@
       <c r="D175" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>85</v>
       </c>
@@ -4378,8 +5377,11 @@
       <c r="D176" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>29</v>
       </c>
@@ -4392,8 +5394,11 @@
       <c r="D177" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>29</v>
       </c>
@@ -4406,8 +5411,11 @@
       <c r="D178" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -4420,8 +5428,14 @@
       <c r="D179" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>389</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -4434,8 +5448,11 @@
       <c r="D180" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>196</v>
       </c>
@@ -4448,8 +5465,11 @@
       <c r="D181" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -4462,8 +5482,11 @@
       <c r="D182" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -4476,8 +5499,11 @@
       <c r="D183" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -4490,8 +5516,11 @@
       <c r="D184" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -4504,8 +5533,11 @@
       <c r="D185" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>258</v>
       </c>
@@ -4518,8 +5550,11 @@
       <c r="D186" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>260</v>
       </c>
@@ -4532,8 +5567,11 @@
       <c r="D187" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>29</v>
       </c>
@@ -4546,8 +5584,14 @@
       <c r="D188" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>393</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -4560,8 +5604,11 @@
       <c r="D189" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -4574,8 +5621,14 @@
       <c r="D190" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>366</v>
+      </c>
+      <c r="G190">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -4588,8 +5641,14 @@
       <c r="D191" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>362</v>
+      </c>
+      <c r="G191">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>293</v>
       </c>
@@ -4602,8 +5661,11 @@
       <c r="D192" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>123</v>
       </c>
@@ -4616,8 +5678,11 @@
       <c r="D193" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>175</v>
       </c>
@@ -4630,8 +5695,11 @@
       <c r="D194" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>123</v>
       </c>
@@ -4644,8 +5712,11 @@
       <c r="D195" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -4658,8 +5729,14 @@
       <c r="D196" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>377</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>221</v>
       </c>
@@ -4672,8 +5749,14 @@
       <c r="D197" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>575</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>171</v>
       </c>
@@ -4686,8 +5769,11 @@
       <c r="D198" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -4700,8 +5786,11 @@
       <c r="D199" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>77</v>
       </c>
@@ -4714,8 +5803,11 @@
       <c r="D200" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -4728,8 +5820,11 @@
       <c r="D201" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>111</v>
       </c>
@@ -4742,8 +5837,11 @@
       <c r="D202" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>113</v>
       </c>
@@ -4756,8 +5854,11 @@
       <c r="D203" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>122</v>
       </c>
@@ -4770,8 +5871,11 @@
       <c r="D204" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>129</v>
       </c>
@@ -4784,8 +5888,11 @@
       <c r="D205" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>129</v>
       </c>
@@ -4798,8 +5905,11 @@
       <c r="D206" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>129</v>
       </c>
@@ -4812,8 +5922,14 @@
       <c r="D207" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>402</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>164</v>
       </c>
@@ -4826,8 +5942,11 @@
       <c r="D208" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>168</v>
       </c>
@@ -4840,8 +5959,11 @@
       <c r="D209" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>129</v>
       </c>
@@ -4854,8 +5976,11 @@
       <c r="D210" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>129</v>
       </c>
@@ -4868,8 +5993,14 @@
       <c r="D211" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>387</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -4882,8 +6013,11 @@
       <c r="D212" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>129</v>
       </c>
@@ -4896,8 +6030,11 @@
       <c r="D213" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -4910,8 +6047,11 @@
       <c r="D214" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>129</v>
       </c>
@@ -4924,8 +6064,14 @@
       <c r="D215" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>394</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>273</v>
       </c>
@@ -4938,8 +6084,11 @@
       <c r="D216" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>274</v>
       </c>
@@ -4952,8 +6101,11 @@
       <c r="D217" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -4966,8 +6118,11 @@
       <c r="D218" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -4980,8 +6135,14 @@
       <c r="D219" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>375</v>
+      </c>
+      <c r="G219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>129</v>
       </c>
@@ -4994,8 +6155,11 @@
       <c r="D220" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -5008,8 +6172,11 @@
       <c r="D221" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -5022,8 +6189,11 @@
       <c r="D222" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>24</v>
       </c>
@@ -5036,8 +6206,11 @@
       <c r="D223" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -5050,8 +6223,11 @@
       <c r="D224" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -5064,8 +6240,11 @@
       <c r="D225" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -5078,8 +6257,14 @@
       <c r="D226" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>384</v>
+      </c>
+      <c r="G226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -5092,8 +6277,14 @@
       <c r="D227" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>374</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -5106,8 +6297,11 @@
       <c r="D228" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -5120,8 +6314,14 @@
       <c r="D229" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>400</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>67</v>
       </c>
@@ -5134,8 +6334,11 @@
       <c r="D230" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -5148,8 +6351,11 @@
       <c r="D231" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -5162,8 +6368,11 @@
       <c r="D232" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>92</v>
       </c>
@@ -5176,8 +6385,11 @@
       <c r="D233" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>98</v>
       </c>
@@ -5190,8 +6402,11 @@
       <c r="D234" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>126</v>
       </c>
@@ -5204,8 +6419,11 @@
       <c r="D235" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>127</v>
       </c>
@@ -5218,8 +6436,11 @@
       <c r="D236" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>55</v>
       </c>
@@ -5232,8 +6453,11 @@
       <c r="D237" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>151</v>
       </c>
@@ -5246,8 +6470,11 @@
       <c r="D238" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -5260,8 +6487,14 @@
       <c r="D239" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>373</v>
+      </c>
+      <c r="G239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>48</v>
       </c>
@@ -5274,8 +6507,11 @@
       <c r="D240" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -5288,8 +6524,11 @@
       <c r="D241" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>55</v>
       </c>
@@ -5302,8 +6541,11 @@
       <c r="D242" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>178</v>
       </c>
@@ -5316,8 +6558,14 @@
       <c r="D243" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>613</v>
+      </c>
+      <c r="G243">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>181</v>
       </c>
@@ -5330,8 +6578,11 @@
       <c r="D244" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>184</v>
       </c>
@@ -5344,8 +6595,11 @@
       <c r="D245" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>192</v>
       </c>
@@ -5358,8 +6612,11 @@
       <c r="D246" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>55</v>
       </c>
@@ -5372,8 +6629,11 @@
       <c r="D247" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>220</v>
       </c>
@@ -5386,8 +6646,14 @@
       <c r="D248" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>618</v>
+      </c>
+      <c r="G248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>226</v>
       </c>
@@ -5400,8 +6666,11 @@
       <c r="D249" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>228</v>
       </c>
@@ -5414,8 +6683,11 @@
       <c r="D250" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>230</v>
       </c>
@@ -5428,8 +6700,11 @@
       <c r="D251" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>245</v>
       </c>
@@ -5442,8 +6717,11 @@
       <c r="D252" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -5456,8 +6734,11 @@
       <c r="D253" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -5470,8 +6751,11 @@
       <c r="D254" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -5484,8 +6768,11 @@
       <c r="D255" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>275</v>
       </c>
@@ -5498,8 +6785,11 @@
       <c r="D256" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>277</v>
       </c>
@@ -5512,8 +6802,11 @@
       <c r="D257" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>283</v>
       </c>
@@ -5526,8 +6819,11 @@
       <c r="D258" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>67</v>
       </c>
@@ -5540,8 +6836,11 @@
       <c r="D259" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>67</v>
       </c>
@@ -5555,7 +6854,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -5569,7 +6868,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>290</v>
       </c>
@@ -5583,7 +6882,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>67</v>
       </c>
@@ -5597,7 +6896,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -5611,7 +6910,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>307</v>
       </c>
@@ -5625,7 +6924,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>158</v>
       </c>
@@ -5639,7 +6938,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>308</v>
       </c>
@@ -5653,7 +6952,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>67</v>
       </c>
@@ -5667,7 +6966,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>67</v>
       </c>
@@ -5681,7 +6980,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>67</v>
       </c>
@@ -5695,7 +6994,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>67</v>
       </c>
@@ -5709,7 +7008,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>67</v>
       </c>
@@ -8790,8 +10089,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D491">
-    <sortCondition ref="C1:C491"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G449">
+    <sortCondition ref="F24:F449"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
